--- a/data/dividends_info_20260219.xlsx
+++ b/data/dividends_info_20260219.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>55.20000076293945</v>
+        <v>54.79999923706055</v>
       </c>
       <c r="I2" t="n">
-        <v>1.26811592450189</v>
+        <v>1.277372280557622</v>
       </c>
       <c r="J2" t="n">
         <v>361</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>55.20000076293945</v>
+        <v>54.79999923706055</v>
       </c>
       <c r="I3" t="n">
-        <v>3.985507191291655</v>
+        <v>4.014598596038242</v>
       </c>
       <c r="J3" t="n">
         <v>88</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>19.89500045776367</v>
+        <v>19.61499977111816</v>
       </c>
       <c r="I4" t="n">
-        <v>3.970846855103823</v>
+        <v>4.027529998563776</v>
       </c>
       <c r="J4" t="n">
         <v>88</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.837999820709229</v>
+        <v>5.748000144958496</v>
       </c>
       <c r="I5" t="n">
-        <v>3.254539325712379</v>
+        <v>3.305497481009056</v>
       </c>
       <c r="J5" t="n">
         <v>88</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.960000038146973</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="I6" t="n">
-        <v>5.697544618599991</v>
+        <v>5.710291095764373</v>
       </c>
       <c r="J6" t="n">
         <v>74</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2.329999923706055</v>
+        <v>2.180000066757202</v>
       </c>
       <c r="I8" t="n">
-        <v>2.789699662161886</v>
+        <v>2.981651284840964</v>
       </c>
       <c r="J8" t="n">
         <v>67</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6.84499979019165</v>
+        <v>6.764999866485596</v>
       </c>
       <c r="I9" t="n">
-        <v>7.304602123092259</v>
+        <v>7.390983146607939</v>
       </c>
       <c r="J9" t="n">
         <v>60</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>12.31999969482422</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="I10" t="n">
-        <v>4.383116991690029</v>
+        <v>4.354838843648322</v>
       </c>
       <c r="J10" t="n">
         <v>60</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>19.18000030517578</v>
+        <v>18.90500068664551</v>
       </c>
       <c r="I12" t="n">
-        <v>3.284671480583828</v>
+        <v>3.332451611308493</v>
       </c>
       <c r="J12" t="n">
         <v>60</v>
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>28.78000068664551</v>
+        <v>28.29999923706055</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3127171572367675</v>
+        <v>0.3180212099869585</v>
       </c>
       <c r="J13" t="n">
         <v>32</v>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.1729999929666519</v>
+        <v>0.1885000020265579</v>
       </c>
       <c r="I15" t="n">
-        <v>34.68208233486218</v>
+        <v>31.8302383845845</v>
       </c>
       <c r="J15" t="n">
         <v>-17</v>
@@ -1162,7 +1162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C209"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1700,7 +1700,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>Pozzi Milano S.p.A.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1710,14 +1710,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1727,14 +1727,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Prysmian S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1751,7 +1751,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pozzi Milano S.p.A.</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1761,14 +1761,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JUVENTUS F.C. S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1778,14 +1778,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IGD SIIQ S.p.A.</t>
+          <t>Prysmian S.p.A.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1795,14 +1795,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Intesa Sanpaolo S.p.A.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1812,14 +1812,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>IGD SIIQ S.p.A.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1829,14 +1829,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dedem S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1846,14 +1846,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intesa Sanpaolo S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1863,19 +1863,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
+          <t>Dedem S.p.A.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1887,46 +1887,46 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>JUVENTUS F.C. S.p.A.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>SOGEFI S.p.A.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1938,46 +1938,46 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ariston Holding N.V.</t>
+          <t>Reti S.p.A.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Banco BPM S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual General Meeting</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Autostrade Meridionali S.p.A.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1989,63 +1989,63 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kruso Kapital S.p.A.</t>
+          <t>Renovalo S.p.A.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lottomatica Group S.p.A.</t>
+          <t>S.S. Lazio S.p.A.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>Anima Holding S.p.A.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MAIRE S.p.A.</t>
+          <t>I.CO.P. S.p.A. Società Benefit</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2057,12 +2057,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Banca Generali S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2074,46 +2074,46 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Lottomatica Group S.p.A.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Italgas S.p.A.</t>
+          <t>Kruso Kapital S.p.A.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Masi Agricola S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2125,63 +2125,63 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FinecoBank S.p.A.</t>
+          <t>Ariston Holding N.V.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>Banco BPM S.p.A.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Davide Campari-Milano N.V.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2203,14 +2203,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AMPLIFON S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2220,14 +2220,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Masi Agricola S.p.A.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2244,7 +2244,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>INTERCOS S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2261,29 +2261,29 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>MAIRE S.p.A.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nexi S.p.A.</t>
+          <t>Italgas S.p.A.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2295,29 +2295,29 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PIAGGIO &amp; C. S.p.A.</t>
+          <t>FinecoBank S.p.A.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2329,12 +2329,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2346,12 +2346,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Snam S.p.A.</t>
+          <t>Davide Campari-Milano N.V.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2363,12 +2363,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Generalfinance S.p.A.</t>
+          <t>Banca Generali S.p.A.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2380,29 +2380,29 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AZIMUT HOLDING S.p.A.</t>
+          <t>AMPLIFON S.p.A.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2414,24 +2414,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>INTERCOS S.p.A.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-03-05</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ITALMOBILIARE S.p.A.</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ASCOPIAVE S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2465,63 +2465,63 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BANCA SISTEMA S.p.A.</t>
+          <t>Snam S.p.A.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BEEWIZE</t>
+          <t>PIAGGIO &amp; C. S.p.A.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CALTAGIRONE EDITORE S.p.A.</t>
+          <t>Nexi S.p.A.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
+          <t>Mediobanca Banca di Credito Finanziario S.p.A.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2533,46 +2533,46 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DIGITAL BROS S.p.A.</t>
+          <t>Generalfinance S.p.A.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Half Year Report</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sanlorenzo S.p.A.</t>
+          <t>EUROCOMMERCIAL PROPERTIES N.V.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>VALSOIA S.p.A.</t>
+          <t>AZIMUT HOLDING S.p.A.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-03-09</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2584,29 +2584,29 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Toscana Aeroporti S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SAIPEM S.p.A.</t>
+          <t>ASCOPIAVE S.p.A.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2618,12 +2618,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RT&amp;L S.P.A.</t>
+          <t>ITALMOBILIARE S.p.A.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2635,12 +2635,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Banca Popolare di Sondrio S.p.A.</t>
+          <t>BANCA SISTEMA S.p.A.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2652,12 +2652,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>BEEWIZE</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2669,46 +2669,46 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>DIGITAL BROS S.p.A.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-03-10</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Half Year Report</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>CALTAGIRONE EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>CIR S.p.A. - COMPAGNIE INDUSTRIALI RIUNITE</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>Sanlorenzo S.p.A.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2737,46 +2737,46 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>VALSOIA S.p.A.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-09</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>Toscana Aeroporti S.p.A.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>SAIPEM S.p.A.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2788,12 +2788,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>RT&amp;L S.P.A.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2805,12 +2805,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>Banca Popolare di Sondrio S.p.A.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2822,12 +2822,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2839,12 +2839,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2026-03-11</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2873,7 +2873,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2883,14 +2883,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2907,7 +2907,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2917,14 +2917,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2934,14 +2934,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2951,14 +2951,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2968,14 +2968,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2992,7 +2992,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3009,7 +3009,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3019,14 +3019,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3036,36 +3036,36 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3077,12 +3077,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3094,12 +3094,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3111,12 +3111,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3128,12 +3128,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3145,12 +3145,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3162,12 +3162,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3179,29 +3179,29 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2026-03-12</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3213,7 +3213,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3247,7 +3247,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3264,7 +3264,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3281,7 +3281,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3298,7 +3298,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3308,14 +3308,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3325,14 +3325,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3349,7 +3349,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3359,14 +3359,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3383,7 +3383,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3393,14 +3393,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3417,7 +3417,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3434,7 +3434,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3451,7 +3451,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3461,14 +3461,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3478,14 +3478,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3495,14 +3495,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3512,14 +3512,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3536,7 +3536,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3546,14 +3546,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3563,14 +3563,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3580,14 +3580,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3621,29 +3621,29 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3655,80 +3655,80 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3740,12 +3740,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3757,12 +3757,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3774,12 +3774,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-12</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3791,7 +3791,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3808,7 +3808,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3825,7 +3825,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3835,14 +3835,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3852,19 +3852,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3876,12 +3876,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3893,46 +3893,46 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3944,12 +3944,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3961,12 +3961,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3978,46 +3978,46 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2026-03-16</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4029,12 +4029,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A2A S.p.A.</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4046,12 +4046,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4063,29 +4063,29 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Pharmanutra S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4097,12 +4097,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4114,29 +4114,29 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2026-03-17</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4148,12 +4148,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Technoprobe S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4165,29 +4165,29 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>doValue S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4199,12 +4199,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4216,12 +4216,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4233,12 +4233,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4250,29 +4250,29 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4284,12 +4284,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2026-03-18</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4301,63 +4301,63 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>TECHNOGYM S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-16</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RECORDATI S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4369,12 +4369,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4386,12 +4386,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>FRENDY ENERGY S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4403,12 +4403,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>FNM S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4420,12 +4420,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Ecomembrane S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -4437,97 +4437,97 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AEDES S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-17</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>B&amp;C SPEAKERS S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4539,12 +4539,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ENEL S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -4556,12 +4556,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>DATALOGIC S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2026-03-19</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4573,12 +4573,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>DHH S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4590,12 +4590,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>gAIn360 S.p.A.</t>
+          <t>doValue S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4607,12 +4607,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>DiaSorin S.p.A</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4624,12 +4624,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Gambero Rosso S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-18</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4641,29 +4641,29 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>INTERPUMP GROUP S.p.A.</t>
+          <t>ENEL S.p.A.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>NEXT RE SIIQ S.p.A.</t>
+          <t>DATALOGIC S.p.A.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4675,12 +4675,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>OPS Italia S.p.A.</t>
+          <t>B&amp;C SPEAKERS S.p.A.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4692,12 +4692,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-19</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4709,15 +4709,355 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
+          <t>ARNOLDO MONDADORI EDITORE S.p.A.</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>AEDES S.p.A.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ENEL S.p.A.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Eni S.p.A.</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>TECHNOGYM S.p.A.</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>TECHNOGYM S.p.A.</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>RECORDATI S.p.A.</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>RATTI S.p.A. SOCIETA' BENEFIT</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ITALIAN EXHIBITION GROUP S.p.A.</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>FRENDY ENERGY S.p.A.</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>FNM S.p.A.</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Ecomembrane S.p.A.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2026-03-19</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>DHH S.p.A.</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
           <t>Telesia S.p.A.</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>2026-03-20</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Pattern S.p.A.</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Analyst Presentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>OPS Italia S.p.A.</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>NEXT RE SIIQ S.p.A.</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>INTERPUMP GROUP S.p.A.</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Gambero Rosso S.p.A.</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>gAIn360 S.p.A.</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Bod Annual Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>DiaSorin S.p.A</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
         <is>
           <t>Bod Annual Report</t>
         </is>
@@ -4734,109 +5074,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>detachment_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>payment_date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>last_close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dividend</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>currency</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ratio</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>miss_days</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>is_opportunity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>EDISON S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>IT0003372205</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-04-27 00:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2026-04-29</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>2.329999923706055</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EURO</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2.789699662161886</v>
-      </c>
-      <c r="I2" t="n">
-        <v>67</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4847,49 +5092,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>I.CO.P. S.p.A. Società Benefit</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-02</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>